--- a/data_files/STEC_non-O157_2018.xlsx
+++ b/data_files/STEC_non-O157_2018.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pokey\Documents\NSS\Projects\capstone_project\Foodborne_Illness\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C45BD8DC-379D-458F-92C7-9F08D06E9E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C061873-7559-4A4D-A270-4689C46DC93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="666" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t>Number of cases</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>* The assumption is that End Stage Renal Disease shortens life expectancy. Thus, these cases are counted as resulting in deaths at a future date, the value of which is discounted back to present value.</t>
+  </si>
+  <si>
+    <t>Health outcomes</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1884,9 @@
   </sheetPr>
   <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6"/>
   <cols>
@@ -2001,12 +2006,14 @@
       <c r="AL4" s="5"/>
     </row>
     <row r="5" spans="1:39" ht="60">
-      <c r="A5" s="86"/>
+      <c r="A5" s="86" t="s">
+        <v>60</v>
+      </c>
       <c r="B5" s="86"/>
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="124" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F5" s="144" t="s">
         <v>21</v>
